--- a/meta.xlsx
+++ b/meta.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Internal\Django\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Internal\Tabulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50255C79-3BD0-4379-819F-DBB780FD7A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460B9747-9B0E-4B0A-9609-BA0EEFEC442F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7664,10 +7664,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G1831"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="C733" sqref="C733"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7704,7 +7705,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -7721,7 +7722,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -7738,7 +7739,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -7755,7 +7756,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -7772,7 +7773,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -7789,7 +7790,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -7806,7 +7807,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -7823,7 +7824,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -7840,7 +7841,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -7857,7 +7858,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -7874,7 +7875,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -7891,7 +7892,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -7908,7 +7909,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -7925,7 +7926,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -7942,7 +7943,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -7959,7 +7960,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -7976,7 +7977,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -7993,7 +7994,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -8010,7 +8011,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -8027,7 +8028,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -8044,7 +8045,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -8061,7 +8062,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -8078,7 +8079,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -8095,7 +8096,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -8112,7 +8113,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -8129,7 +8130,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -8146,7 +8147,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>59</v>
       </c>
@@ -8163,7 +8164,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>61</v>
       </c>
@@ -8180,7 +8181,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -8197,7 +8198,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -8214,7 +8215,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -8231,7 +8232,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>69</v>
       </c>
@@ -8248,7 +8249,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>70</v>
       </c>
@@ -8265,7 +8266,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>71</v>
       </c>
@@ -8282,7 +8283,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -8299,7 +8300,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>74</v>
       </c>
@@ -8316,7 +8317,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -8333,7 +8334,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -8350,7 +8351,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -8367,7 +8368,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>82</v>
       </c>
@@ -8384,7 +8385,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>84</v>
       </c>
@@ -8401,7 +8402,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -8418,7 +8419,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>88</v>
       </c>
@@ -8435,7 +8436,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>90</v>
       </c>
@@ -8452,7 +8453,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -8469,7 +8470,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -8486,7 +8487,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>93</v>
       </c>
@@ -8503,7 +8504,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>95</v>
       </c>
@@ -8520,7 +8521,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>97</v>
       </c>
@@ -8537,7 +8538,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>99</v>
       </c>
@@ -8554,7 +8555,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>101</v>
       </c>
@@ -8571,7 +8572,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>103</v>
       </c>
@@ -8588,7 +8589,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>105</v>
       </c>
@@ -8605,7 +8606,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>107</v>
       </c>
@@ -8622,7 +8623,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>109</v>
       </c>
@@ -8639,7 +8640,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>111</v>
       </c>
@@ -8656,7 +8657,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>113</v>
       </c>
@@ -8673,7 +8674,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>115</v>
       </c>
@@ -8690,7 +8691,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>116</v>
       </c>
@@ -8707,7 +8708,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>117</v>
       </c>
@@ -8724,7 +8725,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>118</v>
       </c>
@@ -8741,7 +8742,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>120</v>
       </c>
@@ -8758,7 +8759,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>122</v>
       </c>
@@ -8775,7 +8776,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>124</v>
       </c>
@@ -8792,7 +8793,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>126</v>
       </c>
@@ -8809,7 +8810,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>128</v>
       </c>
@@ -8826,7 +8827,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>130</v>
       </c>
@@ -8843,7 +8844,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>132</v>
       </c>
@@ -8860,7 +8861,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>134</v>
       </c>
@@ -8877,7 +8878,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>136</v>
       </c>
@@ -8894,7 +8895,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>137</v>
       </c>
@@ -8911,7 +8912,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>138</v>
       </c>
@@ -8928,7 +8929,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>139</v>
       </c>
@@ -8945,7 +8946,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>141</v>
       </c>
@@ -8962,7 +8963,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>143</v>
       </c>
@@ -8979,7 +8980,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>145</v>
       </c>
@@ -8996,7 +8997,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>147</v>
       </c>
@@ -9013,7 +9014,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>149</v>
       </c>
@@ -9030,7 +9031,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>151</v>
       </c>
@@ -9047,7 +9048,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>153</v>
       </c>
@@ -9064,7 +9065,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>155</v>
       </c>
@@ -9081,7 +9082,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>157</v>
       </c>
@@ -9098,7 +9099,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>159</v>
       </c>
@@ -9115,7 +9116,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>160</v>
       </c>
@@ -9132,7 +9133,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>162</v>
       </c>
@@ -9149,7 +9150,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>164</v>
       </c>
@@ -9166,7 +9167,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>166</v>
       </c>
@@ -9183,7 +9184,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>168</v>
       </c>
@@ -9200,7 +9201,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>170</v>
       </c>
@@ -9217,7 +9218,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>172</v>
       </c>
@@ -9234,7 +9235,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>174</v>
       </c>
@@ -9251,7 +9252,7 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>176</v>
       </c>
@@ -9268,7 +9269,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>178</v>
       </c>
@@ -9285,7 +9286,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>180</v>
       </c>
@@ -9302,7 +9303,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>182</v>
       </c>
@@ -9319,7 +9320,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>184</v>
       </c>
@@ -9336,7 +9337,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>186</v>
       </c>
@@ -9353,7 +9354,7 @@
         <v>2264</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>188</v>
       </c>
@@ -9370,7 +9371,7 @@
         <v>2264</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>190</v>
       </c>
@@ -9387,7 +9388,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>192</v>
       </c>
@@ -9404,7 +9405,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>194</v>
       </c>
@@ -9421,7 +9422,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>196</v>
       </c>
@@ -9438,7 +9439,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>198</v>
       </c>
@@ -9455,7 +9456,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>200</v>
       </c>
@@ -9472,7 +9473,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>202</v>
       </c>
@@ -9489,7 +9490,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>204</v>
       </c>
@@ -9506,7 +9507,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>206</v>
       </c>
@@ -9523,7 +9524,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>208</v>
       </c>
@@ -9540,7 +9541,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>210</v>
       </c>
@@ -9557,7 +9558,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>212</v>
       </c>
@@ -9574,7 +9575,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>214</v>
       </c>
@@ -9591,7 +9592,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>216</v>
       </c>
@@ -9608,7 +9609,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>217</v>
       </c>
@@ -9625,7 +9626,7 @@
         <v>2345</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>218</v>
       </c>
@@ -9642,7 +9643,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>220</v>
       </c>
@@ -9659,7 +9660,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>222</v>
       </c>
@@ -9676,7 +9677,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>224</v>
       </c>
@@ -9693,7 +9694,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>226</v>
       </c>
@@ -9710,7 +9711,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>227</v>
       </c>
@@ -9727,7 +9728,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>228</v>
       </c>
@@ -9744,7 +9745,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>230</v>
       </c>
@@ -9761,7 +9762,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>232</v>
       </c>
@@ -9778,7 +9779,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>234</v>
       </c>
@@ -9795,7 +9796,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>236</v>
       </c>
@@ -9812,7 +9813,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>238</v>
       </c>
@@ -9829,7 +9830,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>240</v>
       </c>
@@ -9846,7 +9847,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>242</v>
       </c>
@@ -9863,7 +9864,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>244</v>
       </c>
@@ -9880,7 +9881,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>246</v>
       </c>
@@ -9897,7 +9898,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>248</v>
       </c>
@@ -9914,7 +9915,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>250</v>
       </c>
@@ -9931,7 +9932,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>252</v>
       </c>
@@ -9948,7 +9949,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>254</v>
       </c>
@@ -9965,7 +9966,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>256</v>
       </c>
@@ -9982,7 +9983,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>258</v>
       </c>
@@ -9999,7 +10000,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>260</v>
       </c>
@@ -10016,7 +10017,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>262</v>
       </c>
@@ -10033,7 +10034,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>264</v>
       </c>
@@ -10050,7 +10051,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>266</v>
       </c>
@@ -10067,7 +10068,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>268</v>
       </c>
@@ -10084,7 +10085,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>270</v>
       </c>
@@ -10101,7 +10102,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>272</v>
       </c>
@@ -10118,7 +10119,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>274</v>
       </c>
@@ -10135,7 +10136,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>276</v>
       </c>
@@ -10152,7 +10153,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>278</v>
       </c>
@@ -10169,7 +10170,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>280</v>
       </c>
@@ -10186,7 +10187,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>281</v>
       </c>
@@ -10203,7 +10204,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>282</v>
       </c>
@@ -10220,7 +10221,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>283</v>
       </c>
@@ -10237,7 +10238,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>284</v>
       </c>
@@ -10254,7 +10255,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>285</v>
       </c>
@@ -10271,7 +10272,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>286</v>
       </c>
@@ -10288,7 +10289,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>287</v>
       </c>
@@ -10305,7 +10306,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>288</v>
       </c>
@@ -10322,7 +10323,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>289</v>
       </c>
@@ -10339,7 +10340,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>290</v>
       </c>
@@ -10356,7 +10357,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>291</v>
       </c>
@@ -10373,7 +10374,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>292</v>
       </c>
@@ -10390,7 +10391,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>293</v>
       </c>
@@ -10407,7 +10408,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>294</v>
       </c>
@@ -10424,7 +10425,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>295</v>
       </c>
@@ -10441,7 +10442,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>296</v>
       </c>
@@ -10458,7 +10459,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>297</v>
       </c>
@@ -10475,7 +10476,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>298</v>
       </c>
@@ -10492,7 +10493,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>299</v>
       </c>
@@ -10509,7 +10510,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>300</v>
       </c>
@@ -10526,7 +10527,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>301</v>
       </c>
@@ -10543,7 +10544,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>302</v>
       </c>
@@ -10560,7 +10561,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>303</v>
       </c>
@@ -10577,7 +10578,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>304</v>
       </c>
@@ -10594,7 +10595,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>305</v>
       </c>
@@ -10611,7 +10612,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>306</v>
       </c>
@@ -10628,7 +10629,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>307</v>
       </c>
@@ -10645,7 +10646,7 @@
         <v>2348</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>308</v>
       </c>
@@ -10662,7 +10663,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>309</v>
       </c>
@@ -10679,7 +10680,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>310</v>
       </c>
@@ -10696,7 +10697,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>311</v>
       </c>
@@ -10713,7 +10714,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>312</v>
       </c>
@@ -10730,7 +10731,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>313</v>
       </c>
@@ -10747,7 +10748,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>314</v>
       </c>
@@ -10764,7 +10765,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>315</v>
       </c>
@@ -10781,7 +10782,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>316</v>
       </c>
@@ -10798,7 +10799,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>317</v>
       </c>
@@ -10815,7 +10816,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>318</v>
       </c>
@@ -10832,7 +10833,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>319</v>
       </c>
@@ -10849,7 +10850,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>320</v>
       </c>
@@ -10866,7 +10867,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>321</v>
       </c>
@@ -10883,7 +10884,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>322</v>
       </c>
@@ -10900,7 +10901,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>323</v>
       </c>
@@ -10917,7 +10918,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>324</v>
       </c>
@@ -10934,7 +10935,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>325</v>
       </c>
@@ -10951,7 +10952,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>326</v>
       </c>
@@ -10968,7 +10969,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>327</v>
       </c>
@@ -10985,7 +10986,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>328</v>
       </c>
@@ -11002,7 +11003,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>329</v>
       </c>
@@ -11019,7 +11020,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>330</v>
       </c>
@@ -11036,7 +11037,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>331</v>
       </c>
@@ -11053,7 +11054,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>332</v>
       </c>
@@ -11070,7 +11071,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>333</v>
       </c>
@@ -11087,7 +11088,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>334</v>
       </c>
@@ -11104,7 +11105,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>335</v>
       </c>
@@ -11121,7 +11122,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>336</v>
       </c>
@@ -11138,7 +11139,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>337</v>
       </c>
@@ -11155,7 +11156,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>338</v>
       </c>
@@ -11172,7 +11173,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>339</v>
       </c>
@@ -11189,7 +11190,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>340</v>
       </c>
@@ -11206,7 +11207,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>341</v>
       </c>
@@ -11223,7 +11224,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>342</v>
       </c>
@@ -11240,7 +11241,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>343</v>
       </c>
@@ -11257,7 +11258,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>344</v>
       </c>
@@ -11274,7 +11275,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>345</v>
       </c>
@@ -11291,7 +11292,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>346</v>
       </c>
@@ -11308,7 +11309,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>347</v>
       </c>
@@ -11325,7 +11326,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>348</v>
       </c>
@@ -11342,7 +11343,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>349</v>
       </c>
@@ -11359,7 +11360,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>350</v>
       </c>
@@ -11376,7 +11377,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>351</v>
       </c>
@@ -11393,7 +11394,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>352</v>
       </c>
@@ -11410,7 +11411,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>353</v>
       </c>
@@ -11427,7 +11428,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>354</v>
       </c>
@@ -11444,7 +11445,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>355</v>
       </c>
@@ -11461,7 +11462,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>356</v>
       </c>
@@ -11478,7 +11479,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>357</v>
       </c>
@@ -11495,7 +11496,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>358</v>
       </c>
@@ -11512,7 +11513,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>359</v>
       </c>
@@ -11529,7 +11530,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>360</v>
       </c>
@@ -11546,7 +11547,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>361</v>
       </c>
@@ -11563,7 +11564,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>362</v>
       </c>
@@ -11580,7 +11581,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>363</v>
       </c>
@@ -11597,7 +11598,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>364</v>
       </c>
@@ -11614,7 +11615,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>365</v>
       </c>
@@ -11631,7 +11632,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>366</v>
       </c>
@@ -11648,7 +11649,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>367</v>
       </c>
@@ -11665,7 +11666,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>368</v>
       </c>
@@ -11682,7 +11683,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>369</v>
       </c>
@@ -11699,7 +11700,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>370</v>
       </c>
@@ -11716,7 +11717,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>371</v>
       </c>
@@ -11733,7 +11734,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>372</v>
       </c>
@@ -11750,7 +11751,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>373</v>
       </c>
@@ -11767,7 +11768,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>374</v>
       </c>
@@ -11784,7 +11785,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>375</v>
       </c>
@@ -11801,7 +11802,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>376</v>
       </c>
@@ -11818,7 +11819,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>377</v>
       </c>
@@ -11835,7 +11836,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>378</v>
       </c>
@@ -11852,7 +11853,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>379</v>
       </c>
@@ -11869,7 +11870,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>380</v>
       </c>
@@ -11886,7 +11887,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>381</v>
       </c>
@@ -11903,7 +11904,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>382</v>
       </c>
@@ -11920,7 +11921,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>383</v>
       </c>
@@ -11937,7 +11938,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>384</v>
       </c>
@@ -11954,7 +11955,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>385</v>
       </c>
@@ -11971,7 +11972,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>386</v>
       </c>
@@ -11988,7 +11989,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>388</v>
       </c>
@@ -12005,7 +12006,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>390</v>
       </c>
@@ -12022,7 +12023,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>392</v>
       </c>
@@ -12039,7 +12040,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>394</v>
       </c>
@@ -12056,7 +12057,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>396</v>
       </c>
@@ -12073,7 +12074,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>398</v>
       </c>
@@ -12090,7 +12091,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>400</v>
       </c>
@@ -12107,7 +12108,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>402</v>
       </c>
@@ -12124,7 +12125,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>404</v>
       </c>
@@ -12141,7 +12142,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>406</v>
       </c>
@@ -12158,7 +12159,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>408</v>
       </c>
@@ -12175,7 +12176,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>410</v>
       </c>
@@ -12192,7 +12193,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>412</v>
       </c>
@@ -12209,7 +12210,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>414</v>
       </c>
@@ -12226,7 +12227,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>416</v>
       </c>
@@ -12243,7 +12244,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>418</v>
       </c>
@@ -12260,7 +12261,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>420</v>
       </c>
@@ -12277,7 +12278,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>422</v>
       </c>
@@ -12294,7 +12295,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>424</v>
       </c>
@@ -12311,7 +12312,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>426</v>
       </c>
@@ -12328,7 +12329,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>428</v>
       </c>
@@ -12345,7 +12346,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>430</v>
       </c>
@@ -12362,7 +12363,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>432</v>
       </c>
@@ -12379,7 +12380,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>434</v>
       </c>
@@ -12396,7 +12397,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>436</v>
       </c>
@@ -12413,7 +12414,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>438</v>
       </c>
@@ -12430,7 +12431,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>439</v>
       </c>
@@ -12447,7 +12448,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>441</v>
       </c>
@@ -12464,7 +12465,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>443</v>
       </c>
@@ -12481,7 +12482,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>445</v>
       </c>
@@ -12498,7 +12499,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>447</v>
       </c>
@@ -12515,7 +12516,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>449</v>
       </c>
@@ -12532,7 +12533,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>451</v>
       </c>
@@ -12549,7 +12550,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>453</v>
       </c>
@@ -12566,7 +12567,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>455</v>
       </c>
@@ -12583,7 +12584,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>457</v>
       </c>
@@ -12600,7 +12601,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>459</v>
       </c>
@@ -12617,7 +12618,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>461</v>
       </c>
@@ -12634,7 +12635,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>462</v>
       </c>
@@ -12651,7 +12652,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>463</v>
       </c>
@@ -12668,7 +12669,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>464</v>
       </c>
@@ -12685,7 +12686,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>466</v>
       </c>
@@ -12702,7 +12703,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>468</v>
       </c>
@@ -12719,7 +12720,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>470</v>
       </c>
@@ -12736,7 +12737,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>472</v>
       </c>
@@ -12753,7 +12754,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>474</v>
       </c>
@@ -12770,7 +12771,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>476</v>
       </c>
@@ -12787,7 +12788,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>478</v>
       </c>
@@ -12804,7 +12805,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>480</v>
       </c>
@@ -12821,7 +12822,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>482</v>
       </c>
@@ -12838,7 +12839,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>483</v>
       </c>
@@ -12855,7 +12856,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>484</v>
       </c>
@@ -12872,7 +12873,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>485</v>
       </c>
@@ -12889,7 +12890,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>487</v>
       </c>
@@ -12906,7 +12907,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>489</v>
       </c>
@@ -12923,7 +12924,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>491</v>
       </c>
@@ -12940,7 +12941,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>493</v>
       </c>
@@ -12957,7 +12958,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>495</v>
       </c>
@@ -12974,7 +12975,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>497</v>
       </c>
@@ -12991,7 +12992,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>499</v>
       </c>
@@ -13008,7 +13009,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>501</v>
       </c>
@@ -13025,7 +13026,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>503</v>
       </c>
@@ -13042,7 +13043,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>505</v>
       </c>
@@ -13059,7 +13060,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>507</v>
       </c>
@@ -13076,7 +13077,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>509</v>
       </c>
@@ -13093,7 +13094,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>511</v>
       </c>
@@ -13110,7 +13111,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>513</v>
       </c>
@@ -13127,7 +13128,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>515</v>
       </c>
@@ -13144,7 +13145,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>517</v>
       </c>
@@ -13161,7 +13162,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>519</v>
       </c>
@@ -13178,7 +13179,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>520</v>
       </c>
@@ -13195,7 +13196,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>522</v>
       </c>
@@ -13212,7 +13213,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>524</v>
       </c>
@@ -13229,7 +13230,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>526</v>
       </c>
@@ -13246,7 +13247,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>528</v>
       </c>
@@ -13263,7 +13264,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>530</v>
       </c>
@@ -13280,7 +13281,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>532</v>
       </c>
@@ -13297,7 +13298,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>534</v>
       </c>
@@ -13314,7 +13315,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>536</v>
       </c>
@@ -13331,7 +13332,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>538</v>
       </c>
@@ -13348,7 +13349,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>540</v>
       </c>
@@ -13365,7 +13366,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>542</v>
       </c>
@@ -13382,7 +13383,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>544</v>
       </c>
@@ -13399,7 +13400,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>546</v>
       </c>
@@ -13416,7 +13417,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>548</v>
       </c>
@@ -13433,7 +13434,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>550</v>
       </c>
@@ -13450,7 +13451,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>552</v>
       </c>
@@ -13467,7 +13468,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>554</v>
       </c>
@@ -13484,7 +13485,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>556</v>
       </c>
@@ -13501,7 +13502,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>558</v>
       </c>
@@ -13518,7 +13519,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>560</v>
       </c>
@@ -13535,7 +13536,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>562</v>
       </c>
@@ -13552,7 +13553,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>564</v>
       </c>
@@ -13569,7 +13570,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>566</v>
       </c>
@@ -13586,7 +13587,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>568</v>
       </c>
@@ -13603,7 +13604,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>570</v>
       </c>
@@ -13620,7 +13621,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>571</v>
       </c>
@@ -13637,7 +13638,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>573</v>
       </c>
@@ -13654,7 +13655,7 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>575</v>
       </c>
@@ -13671,7 +13672,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>577</v>
       </c>
@@ -13688,7 +13689,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>578</v>
       </c>
@@ -13705,7 +13706,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>579</v>
       </c>
@@ -13722,7 +13723,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>580</v>
       </c>
@@ -13739,7 +13740,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>581</v>
       </c>
@@ -13756,7 +13757,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>582</v>
       </c>
@@ -13773,7 +13774,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>583</v>
       </c>
@@ -13790,7 +13791,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>584</v>
       </c>
@@ -13807,7 +13808,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>585</v>
       </c>
@@ -13824,7 +13825,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>586</v>
       </c>
@@ -13841,7 +13842,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>587</v>
       </c>
@@ -13858,7 +13859,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>588</v>
       </c>
@@ -13875,7 +13876,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>589</v>
       </c>
@@ -13892,7 +13893,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>590</v>
       </c>
@@ -13909,7 +13910,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>591</v>
       </c>
@@ -13926,7 +13927,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>592</v>
       </c>
@@ -13943,7 +13944,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>593</v>
       </c>
@@ -13960,7 +13961,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>594</v>
       </c>
@@ -13977,7 +13978,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>595</v>
       </c>
@@ -13994,7 +13995,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>596</v>
       </c>
@@ -14011,7 +14012,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>597</v>
       </c>
@@ -14028,7 +14029,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>598</v>
       </c>
@@ -14045,7 +14046,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>599</v>
       </c>
@@ -14062,7 +14063,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>600</v>
       </c>
@@ -14079,7 +14080,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>601</v>
       </c>
@@ -14096,7 +14097,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>602</v>
       </c>
@@ -14113,7 +14114,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>603</v>
       </c>
@@ -14130,7 +14131,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>605</v>
       </c>
@@ -14147,7 +14148,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>607</v>
       </c>
@@ -14164,7 +14165,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>609</v>
       </c>
@@ -14181,7 +14182,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>611</v>
       </c>
@@ -14198,7 +14199,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>613</v>
       </c>
@@ -14215,7 +14216,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>615</v>
       </c>
@@ -14232,7 +14233,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>617</v>
       </c>
@@ -14249,7 +14250,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>619</v>
       </c>
@@ -14266,7 +14267,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>621</v>
       </c>
@@ -14283,7 +14284,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>623</v>
       </c>
@@ -14300,7 +14301,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>625</v>
       </c>
@@ -14317,7 +14318,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>627</v>
       </c>
@@ -14334,7 +14335,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>629</v>
       </c>
@@ -14351,7 +14352,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>631</v>
       </c>
@@ -14368,7 +14369,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>633</v>
       </c>
@@ -14385,7 +14386,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>635</v>
       </c>
@@ -14402,7 +14403,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>637</v>
       </c>
@@ -14419,7 +14420,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>638</v>
       </c>
@@ -14436,7 +14437,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>640</v>
       </c>
@@ -14453,7 +14454,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>642</v>
       </c>
@@ -14470,7 +14471,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>644</v>
       </c>
@@ -14487,7 +14488,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>646</v>
       </c>
@@ -14504,7 +14505,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>648</v>
       </c>
@@ -14521,7 +14522,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>650</v>
       </c>
@@ -14538,7 +14539,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>652</v>
       </c>
@@ -14555,7 +14556,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>654</v>
       </c>
@@ -14572,7 +14573,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>656</v>
       </c>
@@ -14589,7 +14590,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>658</v>
       </c>
@@ -14606,7 +14607,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>660</v>
       </c>
@@ -14623,7 +14624,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>662</v>
       </c>
@@ -14640,7 +14641,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>664</v>
       </c>
@@ -14657,7 +14658,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>666</v>
       </c>
@@ -14674,7 +14675,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>668</v>
       </c>
@@ -14691,7 +14692,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>670</v>
       </c>
@@ -14708,7 +14709,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>672</v>
       </c>
@@ -14725,7 +14726,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>674</v>
       </c>
@@ -14742,7 +14743,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>676</v>
       </c>
@@ -14759,7 +14760,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>678</v>
       </c>
@@ -14776,7 +14777,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>680</v>
       </c>
@@ -14793,7 +14794,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>682</v>
       </c>
@@ -14810,7 +14811,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>684</v>
       </c>
@@ -14827,7 +14828,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>686</v>
       </c>
@@ -14844,7 +14845,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>688</v>
       </c>
@@ -14861,7 +14862,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>689</v>
       </c>
@@ -14878,7 +14879,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>690</v>
       </c>
@@ -14895,7 +14896,7 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>691</v>
       </c>
@@ -14912,7 +14913,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>692</v>
       </c>
@@ -14929,7 +14930,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>693</v>
       </c>
@@ -14946,7 +14947,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>694</v>
       </c>
@@ -14963,7 +14964,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>695</v>
       </c>
@@ -14980,7 +14981,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>696</v>
       </c>
@@ -14997,7 +14998,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>697</v>
       </c>
@@ -15014,7 +15015,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>698</v>
       </c>
@@ -15031,7 +15032,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>699</v>
       </c>
@@ -15048,7 +15049,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>700</v>
       </c>
@@ -15065,7 +15066,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>701</v>
       </c>
@@ -15082,7 +15083,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>702</v>
       </c>
@@ -15099,7 +15100,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>703</v>
       </c>
@@ -15116,7 +15117,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>704</v>
       </c>
@@ -15133,7 +15134,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>705</v>
       </c>
@@ -15150,7 +15151,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>706</v>
       </c>
@@ -15167,7 +15168,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>707</v>
       </c>
@@ -15184,7 +15185,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>708</v>
       </c>
@@ -15201,7 +15202,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>709</v>
       </c>
@@ -15218,7 +15219,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>710</v>
       </c>
@@ -15235,7 +15236,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>711</v>
       </c>
@@ -15252,7 +15253,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>712</v>
       </c>
@@ -15269,7 +15270,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>713</v>
       </c>
@@ -15286,7 +15287,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>714</v>
       </c>
@@ -15303,7 +15304,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>715</v>
       </c>
@@ -15320,7 +15321,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>716</v>
       </c>
@@ -15337,7 +15338,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>717</v>
       </c>
@@ -15354,7 +15355,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>718</v>
       </c>
@@ -15371,7 +15372,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>720</v>
       </c>
@@ -15388,7 +15389,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>722</v>
       </c>
@@ -15405,7 +15406,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>724</v>
       </c>
@@ -15422,7 +15423,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>726</v>
       </c>
@@ -15439,7 +15440,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>728</v>
       </c>
@@ -15456,7 +15457,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>730</v>
       </c>
@@ -15473,7 +15474,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>732</v>
       </c>
@@ -15490,7 +15491,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>734</v>
       </c>
@@ -15507,7 +15508,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>736</v>
       </c>
@@ -15524,7 +15525,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>738</v>
       </c>
@@ -15541,7 +15542,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>740</v>
       </c>
@@ -15558,7 +15559,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>742</v>
       </c>
@@ -15575,7 +15576,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>744</v>
       </c>
@@ -15592,7 +15593,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>746</v>
       </c>
@@ -15609,7 +15610,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>748</v>
       </c>
@@ -15626,7 +15627,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>750</v>
       </c>
@@ -15643,7 +15644,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>752</v>
       </c>
@@ -15660,7 +15661,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>753</v>
       </c>
@@ -15677,7 +15678,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>755</v>
       </c>
@@ -15694,7 +15695,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>757</v>
       </c>
@@ -15711,7 +15712,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>759</v>
       </c>
@@ -15728,7 +15729,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>761</v>
       </c>
@@ -15745,7 +15746,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>763</v>
       </c>
@@ -15762,7 +15763,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>765</v>
       </c>
@@ -15779,7 +15780,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>767</v>
       </c>
@@ -15796,7 +15797,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>769</v>
       </c>
@@ -15813,7 +15814,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>771</v>
       </c>
@@ -15830,7 +15831,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>773</v>
       </c>
@@ -15847,7 +15848,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>775</v>
       </c>
@@ -15864,7 +15865,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>777</v>
       </c>
@@ -15881,7 +15882,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>779</v>
       </c>
@@ -15898,7 +15899,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>781</v>
       </c>
@@ -15915,7 +15916,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>783</v>
       </c>
@@ -15932,7 +15933,7 @@
         <v>783</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>785</v>
       </c>
@@ -15949,7 +15950,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>787</v>
       </c>
@@ -15966,7 +15967,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>789</v>
       </c>
@@ -15983,7 +15984,7 @@
         <v>789</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>791</v>
       </c>
@@ -16000,7 +16001,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>793</v>
       </c>
@@ -16017,7 +16018,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>795</v>
       </c>
@@ -16034,7 +16035,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>797</v>
       </c>
@@ -16051,7 +16052,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>799</v>
       </c>
@@ -16068,7 +16069,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>801</v>
       </c>
@@ -16085,7 +16086,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>803</v>
       </c>
@@ -16102,7 +16103,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>804</v>
       </c>
@@ -16119,7 +16120,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>805</v>
       </c>
@@ -16136,7 +16137,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>806</v>
       </c>
@@ -16153,7 +16154,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>807</v>
       </c>
@@ -16170,7 +16171,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>808</v>
       </c>
@@ -16187,7 +16188,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>809</v>
       </c>
@@ -16204,7 +16205,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>810</v>
       </c>
@@ -16221,7 +16222,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>811</v>
       </c>
@@ -16238,7 +16239,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>812</v>
       </c>
@@ -16255,7 +16256,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>813</v>
       </c>
@@ -16272,7 +16273,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>814</v>
       </c>
@@ -16289,7 +16290,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>815</v>
       </c>
@@ -16306,7 +16307,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>816</v>
       </c>
@@ -16323,7 +16324,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>817</v>
       </c>
@@ -16340,7 +16341,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>818</v>
       </c>
@@ -16357,7 +16358,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>819</v>
       </c>
@@ -16374,7 +16375,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>820</v>
       </c>
@@ -16391,7 +16392,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>821</v>
       </c>
@@ -16408,7 +16409,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>822</v>
       </c>
@@ -16425,7 +16426,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>823</v>
       </c>
@@ -16442,7 +16443,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>824</v>
       </c>
@@ -16459,7 +16460,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>825</v>
       </c>
@@ -16476,7 +16477,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>826</v>
       </c>
@@ -16493,7 +16494,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>827</v>
       </c>
@@ -16510,7 +16511,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>828</v>
       </c>
@@ -16527,7 +16528,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>829</v>
       </c>
@@ -16544,7 +16545,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>830</v>
       </c>
@@ -16561,7 +16562,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>831</v>
       </c>
@@ -16578,7 +16579,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>832</v>
       </c>
@@ -16595,7 +16596,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>833</v>
       </c>
@@ -16612,7 +16613,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>835</v>
       </c>
@@ -16629,7 +16630,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>837</v>
       </c>
@@ -16646,7 +16647,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>839</v>
       </c>
@@ -16663,7 +16664,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>841</v>
       </c>
@@ -16680,7 +16681,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>843</v>
       </c>
@@ -16697,7 +16698,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>845</v>
       </c>
@@ -16714,7 +16715,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>847</v>
       </c>
@@ -16731,7 +16732,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>849</v>
       </c>
@@ -16748,7 +16749,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>851</v>
       </c>
@@ -16765,7 +16766,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>853</v>
       </c>
@@ -16782,7 +16783,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>855</v>
       </c>
@@ -16799,7 +16800,7 @@
         <v>855</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>857</v>
       </c>
@@ -16816,7 +16817,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>859</v>
       </c>
@@ -16833,7 +16834,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>861</v>
       </c>
@@ -16850,7 +16851,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>863</v>
       </c>
@@ -16867,7 +16868,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>865</v>
       </c>
@@ -16884,7 +16885,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>867</v>
       </c>
@@ -16901,7 +16902,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>868</v>
       </c>
@@ -16918,7 +16919,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>870</v>
       </c>
@@ -16935,7 +16936,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>872</v>
       </c>
@@ -16952,7 +16953,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>874</v>
       </c>
@@ -16969,7 +16970,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>876</v>
       </c>
@@ -16986,7 +16987,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>878</v>
       </c>
@@ -17003,7 +17004,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>880</v>
       </c>
@@ -17020,7 +17021,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>882</v>
       </c>
@@ -17037,7 +17038,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>884</v>
       </c>
@@ -17054,7 +17055,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>886</v>
       </c>
@@ -17071,7 +17072,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>888</v>
       </c>
@@ -17088,7 +17089,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>890</v>
       </c>
@@ -17105,7 +17106,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>892</v>
       </c>
@@ -17122,7 +17123,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>894</v>
       </c>
@@ -17139,7 +17140,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>896</v>
       </c>
@@ -17156,7 +17157,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>898</v>
       </c>
@@ -17173,7 +17174,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>900</v>
       </c>
@@ -17190,7 +17191,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>902</v>
       </c>
@@ -17207,7 +17208,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>904</v>
       </c>
@@ -17224,7 +17225,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>906</v>
       </c>
@@ -17241,7 +17242,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>908</v>
       </c>
@@ -17258,7 +17259,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>910</v>
       </c>
@@ -17275,7 +17276,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>912</v>
       </c>
@@ -17292,7 +17293,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>914</v>
       </c>
@@ -17309,7 +17310,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>916</v>
       </c>
@@ -17326,7 +17327,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>918</v>
       </c>
@@ -17343,7 +17344,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>919</v>
       </c>
@@ -17360,7 +17361,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>920</v>
       </c>
@@ -17377,7 +17378,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>921</v>
       </c>
@@ -17394,7 +17395,7 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>922</v>
       </c>
@@ -17411,7 +17412,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>923</v>
       </c>
@@ -17428,7 +17429,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>924</v>
       </c>
@@ -17445,7 +17446,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>925</v>
       </c>
@@ -17462,7 +17463,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>926</v>
       </c>
@@ -17479,7 +17480,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>927</v>
       </c>
@@ -17496,7 +17497,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>928</v>
       </c>
@@ -17513,7 +17514,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>929</v>
       </c>
@@ -17530,7 +17531,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>930</v>
       </c>
@@ -17547,7 +17548,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>931</v>
       </c>
@@ -17564,7 +17565,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>932</v>
       </c>
@@ -17581,7 +17582,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>933</v>
       </c>
@@ -17598,7 +17599,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>934</v>
       </c>
@@ -17615,7 +17616,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>935</v>
       </c>
@@ -17632,7 +17633,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>936</v>
       </c>
@@ -17649,7 +17650,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>937</v>
       </c>
@@ -17666,7 +17667,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>938</v>
       </c>
@@ -17683,7 +17684,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>939</v>
       </c>
@@ -17700,7 +17701,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>940</v>
       </c>
@@ -17717,7 +17718,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>941</v>
       </c>
@@ -17734,7 +17735,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>942</v>
       </c>
@@ -17751,7 +17752,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>943</v>
       </c>
@@ -17768,7 +17769,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>944</v>
       </c>
@@ -17785,7 +17786,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>945</v>
       </c>
@@ -17802,7 +17803,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>946</v>
       </c>
@@ -17819,7 +17820,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>947</v>
       </c>
@@ -17836,7 +17837,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>948</v>
       </c>
@@ -17853,7 +17854,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>950</v>
       </c>
@@ -17870,7 +17871,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>952</v>
       </c>
@@ -17887,7 +17888,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>954</v>
       </c>
@@ -17904,7 +17905,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>956</v>
       </c>
@@ -17921,7 +17922,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>958</v>
       </c>
@@ -17938,7 +17939,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>960</v>
       </c>
@@ -17955,7 +17956,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>962</v>
       </c>
@@ -17972,7 +17973,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>964</v>
       </c>
@@ -17989,7 +17990,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>966</v>
       </c>
@@ -18006,7 +18007,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>968</v>
       </c>
@@ -18023,7 +18024,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>970</v>
       </c>
@@ -18040,7 +18041,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>972</v>
       </c>
@@ -18057,7 +18058,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>974</v>
       </c>
@@ -18074,7 +18075,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>976</v>
       </c>
@@ -18091,7 +18092,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>978</v>
       </c>
@@ -18108,7 +18109,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>980</v>
       </c>
@@ -18125,7 +18126,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>982</v>
       </c>
@@ -18142,7 +18143,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>983</v>
       </c>
@@ -18159,7 +18160,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>985</v>
       </c>
@@ -18176,7 +18177,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>987</v>
       </c>
@@ -18193,7 +18194,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>989</v>
       </c>
@@ -18210,7 +18211,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>991</v>
       </c>
@@ -18227,7 +18228,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>993</v>
       </c>
@@ -18244,7 +18245,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>995</v>
       </c>
@@ -18261,7 +18262,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>997</v>
       </c>
@@ -18278,7 +18279,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>999</v>
       </c>
@@ -18295,7 +18296,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>1001</v>
       </c>
@@ -18312,7 +18313,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>1003</v>
       </c>
@@ -18329,7 +18330,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>1005</v>
       </c>
@@ -18346,7 +18347,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>1007</v>
       </c>
@@ -18363,7 +18364,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>1009</v>
       </c>
@@ -18380,7 +18381,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>1011</v>
       </c>
@@ -18397,7 +18398,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>1013</v>
       </c>
@@ -18414,7 +18415,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>1015</v>
       </c>
@@ -18431,7 +18432,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>1017</v>
       </c>
@@ -18448,7 +18449,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>1019</v>
       </c>
@@ -18465,7 +18466,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>1021</v>
       </c>
@@ -18482,7 +18483,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>1023</v>
       </c>
@@ -18499,7 +18500,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>1025</v>
       </c>
@@ -18516,7 +18517,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>1027</v>
       </c>
@@ -18533,7 +18534,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>1029</v>
       </c>
@@ -18550,7 +18551,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>1031</v>
       </c>
@@ -18567,7 +18568,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>1033</v>
       </c>
@@ -18584,7 +18585,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>1034</v>
       </c>
@@ -18601,7 +18602,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>1035</v>
       </c>
@@ -18618,7 +18619,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>1036</v>
       </c>
@@ -18635,7 +18636,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>1037</v>
       </c>
@@ -18652,7 +18653,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>1038</v>
       </c>
@@ -18669,7 +18670,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>1039</v>
       </c>
@@ -18686,7 +18687,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>1040</v>
       </c>
@@ -18703,7 +18704,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>1041</v>
       </c>
@@ -18720,7 +18721,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>1042</v>
       </c>
@@ -18737,7 +18738,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>1043</v>
       </c>
@@ -18754,7 +18755,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>1044</v>
       </c>
@@ -18771,7 +18772,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>1045</v>
       </c>
@@ -18788,7 +18789,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>1046</v>
       </c>
@@ -18805,7 +18806,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>1047</v>
       </c>
@@ -18822,7 +18823,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>1048</v>
       </c>
@@ -18839,7 +18840,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>1049</v>
       </c>
@@ -18856,7 +18857,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>1050</v>
       </c>
@@ -18873,7 +18874,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>1051</v>
       </c>
@@ -18890,7 +18891,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>1052</v>
       </c>
@@ -18907,7 +18908,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>1053</v>
       </c>
@@ -18924,7 +18925,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>1054</v>
       </c>
@@ -18941,7 +18942,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>1055</v>
       </c>
@@ -18958,7 +18959,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>1056</v>
       </c>
@@ -18975,7 +18976,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>1057</v>
       </c>
@@ -18992,7 +18993,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>1058</v>
       </c>
@@ -19009,7 +19010,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>1059</v>
       </c>
@@ -19026,7 +19027,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>1060</v>
       </c>
@@ -19043,7 +19044,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>1061</v>
       </c>
@@ -19060,7 +19061,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>1062</v>
       </c>
@@ -19077,7 +19078,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>1063</v>
       </c>
@@ -19094,7 +19095,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>1064</v>
       </c>
@@ -19111,7 +19112,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>1065</v>
       </c>
@@ -19128,7 +19129,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>1066</v>
       </c>
@@ -19145,7 +19146,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>1067</v>
       </c>
@@ -19162,7 +19163,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>1068</v>
       </c>
@@ -19179,7 +19180,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>1069</v>
       </c>
@@ -19196,7 +19197,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>1070</v>
       </c>
@@ -19213,7 +19214,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>1071</v>
       </c>
@@ -19230,7 +19231,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>1072</v>
       </c>
@@ -19247,7 +19248,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>1073</v>
       </c>
@@ -19264,7 +19265,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>1074</v>
       </c>
@@ -19281,7 +19282,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>1075</v>
       </c>
@@ -19298,7 +19299,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>1076</v>
       </c>
@@ -19315,7 +19316,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>1077</v>
       </c>
@@ -19332,7 +19333,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>1078</v>
       </c>
@@ -19349,7 +19350,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>1079</v>
       </c>
@@ -19366,7 +19367,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>1080</v>
       </c>
@@ -19383,7 +19384,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>1081</v>
       </c>
@@ -19400,7 +19401,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>1082</v>
       </c>
@@ -19417,7 +19418,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>1083</v>
       </c>
@@ -19434,7 +19435,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>1084</v>
       </c>
@@ -19451,7 +19452,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>1085</v>
       </c>
@@ -19468,7 +19469,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>1086</v>
       </c>
@@ -19485,7 +19486,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>1087</v>
       </c>
@@ -19502,7 +19503,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>1088</v>
       </c>
@@ -19519,7 +19520,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>1089</v>
       </c>
@@ -19536,7 +19537,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>1091</v>
       </c>
@@ -19553,7 +19554,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>1092</v>
       </c>
@@ -19570,7 +19571,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>1093</v>
       </c>
@@ -19587,7 +19588,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>1094</v>
       </c>
@@ -19604,7 +19605,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>1095</v>
       </c>
@@ -19621,7 +19622,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>1096</v>
       </c>
@@ -19638,7 +19639,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>1097</v>
       </c>
@@ -19655,7 +19656,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>1098</v>
       </c>
@@ -19672,7 +19673,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>1099</v>
       </c>
@@ -19689,7 +19690,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>1100</v>
       </c>
@@ -19706,7 +19707,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>1101</v>
       </c>
@@ -19723,7 +19724,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>1102</v>
       </c>
@@ -19740,7 +19741,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>1103</v>
       </c>
@@ -19757,7 +19758,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>1104</v>
       </c>
@@ -19774,7 +19775,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>1105</v>
       </c>
@@ -19791,7 +19792,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>1106</v>
       </c>
@@ -19808,7 +19809,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>1107</v>
       </c>
@@ -19825,7 +19826,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>1108</v>
       </c>
@@ -19842,7 +19843,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>1109</v>
       </c>
@@ -19859,7 +19860,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>1110</v>
       </c>
@@ -19876,7 +19877,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>1111</v>
       </c>
@@ -19893,7 +19894,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>1112</v>
       </c>
@@ -19910,7 +19911,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>1113</v>
       </c>
@@ -19927,7 +19928,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>1114</v>
       </c>
@@ -19944,7 +19945,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>1115</v>
       </c>
@@ -19961,7 +19962,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>1116</v>
       </c>
@@ -19978,7 +19979,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>1117</v>
       </c>
@@ -19995,7 +19996,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>1118</v>
       </c>
@@ -20012,7 +20013,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>1119</v>
       </c>
@@ -20029,7 +20030,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>1120</v>
       </c>
@@ -20046,7 +20047,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>1121</v>
       </c>
@@ -20063,7 +20064,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>1122</v>
       </c>
@@ -20080,7 +20081,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>1123</v>
       </c>
@@ -20097,7 +20098,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>1124</v>
       </c>
@@ -20114,7 +20115,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>1125</v>
       </c>
@@ -37250,7 +37251,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="1740" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1740" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1740" t="s">
         <v>2133</v>
       </c>
@@ -37267,7 +37268,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="1741" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1741" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1741" t="s">
         <v>2135</v>
       </c>
@@ -37284,7 +37285,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="1742" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1742" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1742" t="s">
         <v>2137</v>
       </c>
@@ -37301,7 +37302,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="1743" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1743" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1743" t="s">
         <v>2139</v>
       </c>
@@ -37318,7 +37319,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="1744" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1744" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1744" t="s">
         <v>2141</v>
       </c>
@@ -37335,7 +37336,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="1745" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1745" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1745" t="s">
         <v>2143</v>
       </c>
@@ -37352,7 +37353,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="1746" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1746" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1746" t="s">
         <v>2145</v>
       </c>
@@ -37369,7 +37370,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="1747" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1747" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1747" t="s">
         <v>2146</v>
       </c>
@@ -37386,7 +37387,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="1748" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1748" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1748" t="s">
         <v>2148</v>
       </c>
@@ -37403,7 +37404,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="1749" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1749" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1749" t="s">
         <v>2150</v>
       </c>
@@ -37420,7 +37421,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="1750" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1750" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1750" t="s">
         <v>2151</v>
       </c>
@@ -37437,7 +37438,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="1751" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1751" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1751" t="s">
         <v>2152</v>
       </c>
@@ -37454,7 +37455,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="1752" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1752" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1752" t="s">
         <v>2153</v>
       </c>
@@ -37471,7 +37472,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="1753" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1753" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1753" t="s">
         <v>2154</v>
       </c>
@@ -37488,7 +37489,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="1754" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1754" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1754" t="s">
         <v>2155</v>
       </c>
@@ -37505,7 +37506,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="1755" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1755" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1755" t="s">
         <v>2156</v>
       </c>
@@ -37522,7 +37523,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="1756" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1756" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1756" t="s">
         <v>2157</v>
       </c>
@@ -37539,7 +37540,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="1757" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1757" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1757" t="s">
         <v>2158</v>
       </c>
@@ -37556,7 +37557,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="1758" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1758" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1758" t="s">
         <v>2159</v>
       </c>
@@ -37573,7 +37574,7 @@
         <v>2337</v>
       </c>
     </row>
-    <row r="1759" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1759" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1759" t="s">
         <v>2161</v>
       </c>
@@ -37590,7 +37591,7 @@
         <v>2337</v>
       </c>
     </row>
-    <row r="1760" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1760" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1760" t="s">
         <v>2163</v>
       </c>
@@ -37607,7 +37608,7 @@
         <v>2337</v>
       </c>
     </row>
-    <row r="1761" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1761" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1761" t="s">
         <v>2165</v>
       </c>
@@ -37624,7 +37625,7 @@
         <v>2337</v>
       </c>
     </row>
-    <row r="1762" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1762" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1762" t="s">
         <v>2167</v>
       </c>
@@ -37641,7 +37642,7 @@
         <v>2337</v>
       </c>
     </row>
-    <row r="1763" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1763" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1763" t="s">
         <v>2169</v>
       </c>
@@ -37658,7 +37659,7 @@
         <v>2337</v>
       </c>
     </row>
-    <row r="1764" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1764" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1764" t="s">
         <v>2171</v>
       </c>
@@ -37675,7 +37676,7 @@
         <v>2337</v>
       </c>
     </row>
-    <row r="1765" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1765" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1765" t="s">
         <v>2173</v>
       </c>
@@ -37692,7 +37693,7 @@
         <v>2337</v>
       </c>
     </row>
-    <row r="1766" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1766" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1766" t="s">
         <v>2175</v>
       </c>
@@ -37709,7 +37710,7 @@
         <v>2337</v>
       </c>
     </row>
-    <row r="1767" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1767" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1767" t="s">
         <v>2177</v>
       </c>
@@ -37729,7 +37730,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="1768" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1768" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1768" t="s">
         <v>2178</v>
       </c>
@@ -37749,7 +37750,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="1769" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1769" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1769" t="s">
         <v>2179</v>
       </c>
@@ -37769,7 +37770,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="1770" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1770" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1770" t="s">
         <v>2180</v>
       </c>
@@ -37789,7 +37790,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="1771" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1771" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1771" t="s">
         <v>2181</v>
       </c>
@@ -37809,7 +37810,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="1772" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1772" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1772" t="s">
         <v>2182</v>
       </c>
@@ -37829,7 +37830,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="1773" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1773" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1773" t="s">
         <v>2183</v>
       </c>
@@ -37849,7 +37850,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="1774" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1774" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1774" t="s">
         <v>2184</v>
       </c>
@@ -37869,7 +37870,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="1775" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1775" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1775" t="s">
         <v>2185</v>
       </c>
@@ -37889,7 +37890,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="1776" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1776" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1776" t="s">
         <v>2186</v>
       </c>
@@ -37909,7 +37910,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="1777" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1777" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1777" t="s">
         <v>2187</v>
       </c>
@@ -37929,7 +37930,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="1778" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1778" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1778" t="s">
         <v>2188</v>
       </c>
@@ -37949,7 +37950,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="1779" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1779" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1779" t="s">
         <v>2189</v>
       </c>
@@ -37969,7 +37970,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="1780" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1780" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1780" t="s">
         <v>2190</v>
       </c>
@@ -37989,7 +37990,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="1781" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1781" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1781" t="s">
         <v>2191</v>
       </c>
@@ -38009,7 +38010,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="1782" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1782" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1782" t="s">
         <v>2192</v>
       </c>
@@ -38029,7 +38030,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="1783" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1783" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1783" t="s">
         <v>2193</v>
       </c>
@@ -38049,7 +38050,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="1784" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1784" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1784" t="s">
         <v>2194</v>
       </c>
@@ -38069,7 +38070,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="1785" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1785" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1785" t="s">
         <v>2195</v>
       </c>
@@ -38089,7 +38090,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="1786" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1786" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1786" t="s">
         <v>2196</v>
       </c>
@@ -38109,7 +38110,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="1787" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1787" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1787" t="s">
         <v>2197</v>
       </c>
@@ -38129,7 +38130,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="1788" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1788" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1788" t="s">
         <v>2198</v>
       </c>
@@ -38146,7 +38147,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="1789" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1789" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1789" t="s">
         <v>2200</v>
       </c>
@@ -38163,7 +38164,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="1790" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1790" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1790" t="s">
         <v>2202</v>
       </c>
@@ -38180,7 +38181,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="1791" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1791" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1791" t="s">
         <v>2204</v>
       </c>
@@ -38197,7 +38198,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="1792" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1792" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1792" t="s">
         <v>2206</v>
       </c>
@@ -38214,7 +38215,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="1793" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1793" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1793" t="s">
         <v>2208</v>
       </c>
@@ -38231,7 +38232,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="1794" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1794" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1794" t="s">
         <v>2210</v>
       </c>
@@ -38248,7 +38249,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="1795" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1795" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1795" t="s">
         <v>2212</v>
       </c>
@@ -38265,7 +38266,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="1796" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1796" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1796" t="s">
         <v>2214</v>
       </c>
@@ -38282,7 +38283,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="1797" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1797" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1797" t="s">
         <v>2216</v>
       </c>
@@ -38299,7 +38300,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="1798" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1798" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1798" t="s">
         <v>2218</v>
       </c>
@@ -38316,7 +38317,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="1799" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1799" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1799" t="s">
         <v>2220</v>
       </c>
@@ -38333,7 +38334,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="1800" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1800" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1800" t="s">
         <v>2222</v>
       </c>
@@ -38350,7 +38351,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="1801" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1801" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1801" t="s">
         <v>2224</v>
       </c>
@@ -38367,7 +38368,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="1802" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1802" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1802" t="s">
         <v>2225</v>
       </c>
@@ -38384,7 +38385,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="1803" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1803" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1803" t="s">
         <v>2226</v>
       </c>
@@ -38401,7 +38402,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="1804" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1804" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1804" t="s">
         <v>2227</v>
       </c>
@@ -38421,7 +38422,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="1805" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1805" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1805" t="s">
         <v>2228</v>
       </c>
@@ -38441,7 +38442,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="1806" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1806" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1806" t="s">
         <v>2229</v>
       </c>
@@ -38461,7 +38462,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="1807" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1807" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1807" t="s">
         <v>2230</v>
       </c>
@@ -38481,7 +38482,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="1808" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1808" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1808" t="s">
         <v>2231</v>
       </c>
@@ -38501,7 +38502,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="1809" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1809" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1809" t="s">
         <v>2232</v>
       </c>
@@ -38521,7 +38522,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="1810" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1810" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1810" t="s">
         <v>2233</v>
       </c>
@@ -38541,7 +38542,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="1811" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1811" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1811" t="s">
         <v>2234</v>
       </c>
@@ -38561,7 +38562,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="1812" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1812" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1812" t="s">
         <v>2235</v>
       </c>
@@ -38581,7 +38582,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="1813" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1813" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1813" t="s">
         <v>2236</v>
       </c>
@@ -38601,7 +38602,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="1814" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1814" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1814" t="s">
         <v>2237</v>
       </c>
@@ -38621,7 +38622,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="1815" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1815" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1815" t="s">
         <v>2238</v>
       </c>
@@ -38641,7 +38642,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="1816" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1816" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1816" t="s">
         <v>2239</v>
       </c>
@@ -38661,7 +38662,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="1817" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1817" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1817" t="s">
         <v>2240</v>
       </c>
@@ -38681,7 +38682,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="1818" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1818" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1818" t="s">
         <v>2241</v>
       </c>
@@ -38701,7 +38702,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="1819" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1819" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1819" t="s">
         <v>2242</v>
       </c>
@@ -38721,7 +38722,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="1820" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1820" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1820" t="s">
         <v>2243</v>
       </c>
@@ -38741,7 +38742,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="1821" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1821" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1821" t="s">
         <v>2244</v>
       </c>
@@ -38761,7 +38762,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="1822" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1822" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1822" t="s">
         <v>2245</v>
       </c>
@@ -38781,7 +38782,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="1823" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1823" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1823" t="s">
         <v>2246</v>
       </c>
@@ -38801,7 +38802,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="1824" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1824" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1824" t="s">
         <v>2247</v>
       </c>
@@ -38821,7 +38822,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="1825" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1825" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1825" t="s">
         <v>2248</v>
       </c>
@@ -38841,7 +38842,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="1826" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1826" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1826" t="s">
         <v>2249</v>
       </c>
@@ -38861,7 +38862,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="1827" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1827" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1827" t="s">
         <v>2250</v>
       </c>
@@ -38881,7 +38882,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="1828" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1828" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1828" t="s">
         <v>2251</v>
       </c>
@@ -38901,7 +38902,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="1829" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1829" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1829" t="s">
         <v>2252</v>
       </c>
@@ -38921,7 +38922,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="1830" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1830" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1830" t="s">
         <v>2253</v>
       </c>
@@ -38938,7 +38939,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="1831" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1831" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1831" t="s">
         <v>2255</v>
       </c>
@@ -38956,6 +38957,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G1831" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="MGR"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>